--- a/Matriz de Rastreabilidade.xlsx
+++ b/Matriz de Rastreabilidade.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Descrição</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -884,7 +890,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B1" sqref="B1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -932,38 +938,58 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>

--- a/Matriz de Rastreabilidade.xlsx
+++ b/Matriz de Rastreabilidade.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -132,13 +132,16 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +201,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -348,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,6 +386,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -400,13 +417,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -553,14 +606,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B3:F7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B3:F7"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="1.2.1" dataDxfId="3"/>
-    <tableColumn id="3" name="1.2.2" dataDxfId="2"/>
-    <tableColumn id="4" name="1.2.3" dataDxfId="1"/>
-    <tableColumn id="5" name="1.2.4" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B3:G7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B3:G7"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="1.2.1" dataDxfId="4"/>
+    <tableColumn id="3" name="1.2.2" dataDxfId="3"/>
+    <tableColumn id="4" name="1.2.3" dataDxfId="2"/>
+    <tableColumn id="5" name="1.2.4" dataDxfId="1"/>
+    <tableColumn id="6" name="1.2.5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -887,35 +941,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" hidden="1"/>
+    <col min="2" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -931,9 +987,12 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -947,9 +1006,12 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -961,9 +1023,12 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,9 +1040,12 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -991,70 +1059,76 @@
         <v>11</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="24"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:F2"/>

--- a/Matriz de Rastreabilidade.xlsx
+++ b/Matriz de Rastreabilidade.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>1.2.5</t>
+  </si>
+  <si>
+    <t>O usuário deve ter controle sobre o programa, ou seja, decidir o que o programa irá fazer.</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,6 +389,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,23 +440,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -956,19 +962,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -987,7 +993,7 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2"/>
@@ -1006,7 +1012,7 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1"/>
@@ -1023,7 +1029,7 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="1"/>
@@ -1040,7 +1046,7 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="1"/>
@@ -1059,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1072,65 +1078,78 @@
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="21"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="22"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
